--- a/Oderere.xlsx
+++ b/Oderere.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8FC44-2024-4DDE-B901-3D88E7A148D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF215A-A773-4CEB-B2A3-9CCED78B47D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
